--- a/Grocery_Application/src/test/resources/TestDataMainProject.xlsx
+++ b/Grocery_Application/src/test/resources/TestDataMainProject.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUsersPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -32,19 +33,49 @@
   </si>
   <si>
     <t>admin133334</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>banana.juice</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>raj.banan</t>
+  </si>
+  <si>
+    <t>testdb</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>raj.juice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -428,4 +460,64 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Grocery_Application/src/test/resources/TestDataMainProject.xlsx
+++ b/Grocery_Application/src/test/resources/TestDataMainProject.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUsersPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNews" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -57,6 +58,12 @@
   </si>
   <si>
     <t>raj.juice</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Mynewnews</t>
   </si>
 </sst>
 </file>
@@ -407,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -466,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -520,4 +527,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>